--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -27,12 +27,6 @@
     <t>praseeda</t>
   </si>
   <si>
-    <t>manju</t>
-  </si>
-  <si>
-    <t>srinivasa</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -55,6 +49,27 @@
   </si>
   <si>
     <t>rama krishna</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>sushma</t>
+  </si>
+  <si>
+    <t>shafi</t>
+  </si>
+  <si>
+    <t>lokesh</t>
+  </si>
+  <si>
+    <t>reddy</t>
+  </si>
+  <si>
+    <t>sreesha</t>
+  </si>
+  <si>
+    <t>riha</t>
   </si>
 </sst>
 </file>
@@ -386,111 +401,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
       <c r="B3">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B10">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B11">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>4.9000000000000004</v>
       </c>
     </row>
   </sheetData>
